--- a/dev/combinatoire_graphics.xlsx
+++ b/dev/combinatoire_graphics.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
